--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2182,13 +2178,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -2202,10 +2198,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2216,28 +2212,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2287,13 +2283,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2319,10 +2315,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2333,25 +2329,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2402,19 +2398,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2434,10 +2430,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2448,28 +2444,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2519,19 +2515,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2551,10 +2547,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2565,7 +2561,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2577,16 +2573,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2612,43 +2608,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2668,21 +2664,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2694,16 +2690,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2753,25 +2749,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2785,14 +2781,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2811,16 +2807,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2870,7 +2866,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2888,7 +2884,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2902,10 +2898,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2928,13 +2924,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2973,17 +2969,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2995,7 +2991,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3015,13 +3011,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -3031,7 +3027,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -3043,13 +3039,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3100,7 +3096,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3109,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3132,13 +3128,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -3148,7 +3144,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -3160,13 +3156,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3217,7 +3213,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3226,10 +3222,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3249,13 +3245,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3265,7 +3261,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3277,13 +3273,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3334,7 +3330,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3343,10 +3339,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3366,13 +3362,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3394,13 +3390,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3451,7 +3447,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3460,10 +3456,10 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3483,14 +3479,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3503,25 +3499,25 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3570,7 +3566,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3582,13 +3578,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3602,10 +3598,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3613,7 +3609,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3628,16 +3624,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3675,17 +3671,17 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3697,16 +3693,16 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3717,23 +3713,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3745,16 +3741,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3804,7 +3800,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3816,16 +3812,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3836,10 +3832,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3850,7 +3846,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3862,13 +3858,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3919,25 +3915,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3951,14 +3947,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3977,16 +3973,16 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4024,19 +4020,19 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4048,13 +4044,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -4068,10 +4064,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4082,31 +4078,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -4131,55 +4127,55 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -4187,10 +4183,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4201,31 +4197,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4250,55 +4246,55 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4306,10 +4302,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4317,107 +4313,107 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4425,10 +4421,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4436,31 +4432,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4510,31 +4506,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4542,10 +4538,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4556,25 +4552,25 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4625,31 +4621,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4657,10 +4653,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4671,28 +4667,28 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4742,31 +4738,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4774,13 +4770,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4802,16 +4798,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4861,7 +4857,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4873,16 +4869,16 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4893,10 +4889,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4907,7 +4903,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4919,13 +4915,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4976,25 +4972,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -5008,14 +5004,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5034,16 +5030,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5081,19 +5077,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5105,13 +5101,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -5125,10 +5121,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5139,31 +5135,31 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5188,55 +5184,55 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -5244,10 +5240,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5258,31 +5254,31 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5307,55 +5303,55 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5363,10 +5359,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5374,41 +5370,41 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="N29" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
@@ -5450,31 +5446,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5482,10 +5478,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5493,31 +5489,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5567,31 +5563,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5599,10 +5595,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5613,25 +5609,25 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5682,31 +5678,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5714,10 +5710,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5728,28 +5724,28 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5799,31 +5795,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5831,23 +5827,23 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5859,16 +5855,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5918,7 +5914,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5930,16 +5926,16 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5950,10 +5946,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5964,7 +5960,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5976,13 +5972,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6033,25 +6029,25 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -6065,14 +6061,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6091,16 +6087,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6138,19 +6134,19 @@
         <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6162,13 +6158,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -6182,10 +6178,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6196,31 +6192,31 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6245,55 +6241,55 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="s" s="2">
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6301,10 +6297,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6315,31 +6311,31 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6364,55 +6360,55 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6420,10 +6416,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6431,41 +6427,41 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="N38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>38</v>
@@ -6507,31 +6503,31 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6539,10 +6535,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6550,31 +6546,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6624,31 +6620,31 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6656,10 +6652,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6670,25 +6666,25 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6739,31 +6735,31 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6771,10 +6767,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6785,28 +6781,28 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K41" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6856,31 +6852,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6888,10 +6884,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6911,16 +6907,16 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6971,7 +6967,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6983,13 +6979,13 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -7003,10 +6999,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7026,16 +7022,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7086,7 +7082,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7098,13 +7094,13 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -7118,10 +7114,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7129,31 +7125,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="J44" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7179,55 +7175,55 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AA44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7235,10 +7231,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7261,13 +7257,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7294,14 +7290,14 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7318,7 +7314,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7330,19 +7326,19 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7350,10 +7346,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7364,7 +7360,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7376,13 +7372,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7409,49 +7405,49 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7465,10 +7461,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7476,31 +7472,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7526,55 +7522,55 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7582,10 +7578,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7593,31 +7589,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7667,31 +7663,31 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7699,10 +7695,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7713,7 +7709,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7725,16 +7721,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7784,31 +7780,31 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7816,10 +7812,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7842,16 +7838,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7901,7 +7897,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7913,16 +7909,16 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7933,10 +7929,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7944,31 +7940,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8018,31 +8014,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8050,10 +8046,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8073,16 +8069,16 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8133,7 +8129,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8145,19 +8141,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8165,10 +8161,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8179,7 +8175,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -8191,13 +8187,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8248,25 +8244,25 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8280,14 +8276,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8306,16 +8302,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8365,7 +8361,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8377,13 +8373,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8397,14 +8393,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8417,25 +8413,25 @@
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N55" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8484,7 +8480,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8496,13 +8492,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8516,10 +8512,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8530,7 +8526,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8542,13 +8538,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8575,49 +8571,49 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Z56" t="s" s="2">
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AA56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8631,10 +8627,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8642,28 +8638,28 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8714,25 +8710,25 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8746,10 +8742,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8772,13 +8768,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8805,14 +8801,14 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8829,7 +8825,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8841,19 +8837,19 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8861,10 +8857,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8887,16 +8883,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8946,7 +8942,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8958,30 +8954,30 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8992,7 +8988,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -9004,19 +9000,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9065,31 +9061,31 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9097,10 +9093,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9123,16 +9119,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9182,7 +9178,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9194,19 +9190,19 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9214,10 +9210,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9240,13 +9236,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9297,7 +9293,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9309,13 +9305,13 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9329,10 +9325,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9343,7 +9339,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9355,13 +9351,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9412,25 +9408,25 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9444,10 +9440,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9458,7 +9454,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9470,13 +9466,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9527,25 +9523,25 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9559,14 +9555,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9585,16 +9581,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9644,7 +9640,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9656,13 +9652,13 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9676,14 +9672,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9696,25 +9692,25 @@
         <v>38</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N66" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9763,7 +9759,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9775,13 +9771,13 @@
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9795,10 +9791,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9809,7 +9805,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9821,13 +9817,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9878,25 +9874,25 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9910,10 +9906,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9924,7 +9920,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9936,16 +9932,16 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9971,53 +9967,53 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AA68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10025,10 +10021,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10039,7 +10035,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -10051,13 +10047,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10084,55 +10080,55 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10140,10 +10136,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10154,7 +10150,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -10166,19 +10162,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10203,55 +10199,55 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10259,10 +10255,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10273,7 +10269,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -10285,13 +10281,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10342,25 +10338,25 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
@@ -10374,14 +10370,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10400,16 +10396,16 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10447,19 +10443,19 @@
         <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC72" t="s" s="2">
+      <c r="AF72" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10471,13 +10467,13 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10491,10 +10487,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10514,22 +10510,22 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10566,17 +10562,17 @@
         <v>38</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10588,19 +10584,19 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -10608,13 +10604,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>38</v>
@@ -10624,31 +10620,31 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K74" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10673,11 +10669,11 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10695,7 +10691,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10707,19 +10703,19 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>38</v>
@@ -10727,10 +10723,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10741,7 +10737,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10753,13 +10749,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10810,25 +10806,25 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>38</v>
@@ -10842,14 +10838,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10868,16 +10864,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10915,19 +10911,19 @@
         <v>38</v>
       </c>
       <c r="AB76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10939,13 +10935,13 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10959,10 +10955,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10970,107 +10966,107 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K77" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="S77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF77" t="s" s="2">
+      <c r="AG77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AG77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11078,10 +11074,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11092,28 +11088,28 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J78" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K78" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11163,31 +11159,31 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11195,10 +11191,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11209,29 +11205,29 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11280,31 +11276,31 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>38</v>
@@ -11312,10 +11308,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11326,29 +11322,29 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
@@ -11397,31 +11393,31 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>38</v>
@@ -11429,10 +11425,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11443,31 +11439,31 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
@@ -11516,31 +11512,31 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>38</v>
@@ -11548,13 +11544,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>38</v>
@@ -11564,31 +11560,31 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J82" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K82" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="N82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O82" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11613,11 +11609,11 @@
         <v>38</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>38</v>
@@ -11635,7 +11631,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11647,19 +11643,19 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11667,10 +11663,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11681,7 +11677,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -11693,13 +11689,13 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11750,25 +11746,25 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
@@ -11782,14 +11778,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11808,16 +11804,16 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11855,19 +11851,19 @@
         <v>38</v>
       </c>
       <c r="AB84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC84" t="s" s="2">
+      <c r="AF84" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -11879,13 +11875,13 @@
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
@@ -11899,10 +11895,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11910,41 +11906,41 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J85" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K85" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>38</v>
@@ -11986,31 +11982,31 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AG85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>38</v>
@@ -12018,10 +12014,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12032,28 +12028,28 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J86" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K86" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12103,31 +12099,31 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AG86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12135,10 +12131,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12149,29 +12145,29 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J87" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K87" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
@@ -12220,31 +12216,31 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12252,10 +12248,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12266,29 +12262,29 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J88" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K88" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12337,31 +12333,31 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AG88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12369,10 +12365,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12383,31 +12379,31 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J89" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K89" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12456,31 +12452,31 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AG89" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12488,10 +12484,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12502,31 +12498,31 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K90" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12575,31 +12571,31 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12607,10 +12603,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12621,7 +12617,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>38</v>
@@ -12633,16 +12629,16 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12692,31 +12688,31 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AK91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12724,10 +12720,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12738,7 +12734,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>38</v>
@@ -12750,16 +12746,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12797,41 +12793,41 @@
         <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>38</v>
@@ -12839,13 +12835,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>38</v>
@@ -12855,7 +12851,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>38</v>
@@ -12867,16 +12863,16 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12926,31 +12922,31 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AM93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>38</v>
@@ -12958,10 +12954,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12984,16 +12980,16 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13043,7 +13039,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13055,13 +13051,13 @@
         <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>38</v>
